--- a/ModelFitting/data_fitting.xlsx
+++ b/ModelFitting/data_fitting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA644F-095A-414D-9553-4BF40C289848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F923C-5DED-400C-BC44-E8FF93C6D850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raindrops" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>v_term</t>
   </si>
@@ -94,7 +94,10 @@
     <t>Planet[-ish]</t>
   </si>
   <si>
-    <t>Sqrt Volume</t>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Estimate</t>
   </si>
 </sst>
 </file>
@@ -2146,11 +2149,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pines!$C$1</c:f>
+              <c:f>'Wire Stress'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sqrt Volume</c:v>
+                  <c:v>Estimation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2188,9 +2191,29 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23618941382327205"/>
+                  <c:y val="5.513888888888889E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2223,108 +2246,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Pines!$A$2:$A$16</c:f>
+              <c:f>'Wire Stress'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pines!$C$2:$C$16</c:f>
+              <c:f>'Wire Stress'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.358898943540674</c:v>
+                  <c:v>-5.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>14.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6568542494923806</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1414284285428504</c:v>
+                  <c:v>94.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5498344352707498</c:v>
+                  <c:v>134.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.426149773176359</c:v>
+                  <c:v>174.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.63014581273465</c:v>
+                  <c:v>214.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.874342087037917</c:v>
+                  <c:v>254.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.090536506409418</c:v>
+                  <c:v>294.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.674794331177344</c:v>
+                  <c:v>334.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.856406460551018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.317821063276353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.874507866387544</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.093476939431081</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.146428199482248</c:v>
+                  <c:v>374.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D47-4463-9757-60A816DB2994}"/>
+              <c16:uniqueId val="{00000000-BCCA-4F53-9F0B-EF9BC5C68D97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2344,11 +2343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527627312"/>
-        <c:axId val="545164664"/>
+        <c:axId val="492869880"/>
+        <c:axId val="492868920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527627312"/>
+        <c:axId val="492869880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,12 +2404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545164664"/>
+        <c:crossAx val="492868920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545164664"/>
+        <c:axId val="492868920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527627312"/>
+        <c:crossAx val="492869880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2619,7 +2618,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3010,6 +3009,466 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Pines!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pines!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Pines!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>20.870921979927346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.46362248303701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.54164090044322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.415206704205637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.272891535453795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.986483073060654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.025682666933292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.39132296431976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148.29104003789314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163.13351425305916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213.64253903374967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232.58158344625292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252.62662950005435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.8106020071458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>319.7274575077202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95EE-4326-9691-BD80FF314325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419874736"/>
+        <c:axId val="487983664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419874736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487983664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487983664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419874736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Planets!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3302,6 +3761,402 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="447737008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planets!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planets!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planets!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>59.353049318984404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.97954334487116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.2203668041796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.57467115870674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>796.85562975752998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1461.5298349424061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2938.7954248969354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4605.5164992718474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6054.760911587291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD88-4EB1-BDD4-3E1A6E4DDAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468213816"/>
+        <c:axId val="468215416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468213816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468215416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468215416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468213816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3637,6 +4492,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6734,6 +7669,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7330,16 +9297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>640555</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78581</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311942</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>30955</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>350042</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7366,16 +9333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188118</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1083468</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>345280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7400,6 +9367,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335755</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373855</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAE4396-DD33-4A82-A258-50A86268FF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7407,23 +9410,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>645319</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>573881</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16668</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA03F0A-C9EF-4461-A78F-5A867D3BC5F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7FB2A7-9858-47BE-909A-2F9F0EAF12EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7443,23 +9446,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>421481</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>140493</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335756</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459581</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373856</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7FB2A7-9858-47BE-909A-2F9F0EAF12EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF69019-F3B3-4B3A-91DE-BD7B99B5B4C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7513,6 +9516,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597694</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411956</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6971CE1C-52C9-473F-BE9A-01A843B4A8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7786,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -8463,10 +10502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8475,100 +10514,147 @@
     <col min="2" max="2" width="26.86328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
+      <c r="C2">
+        <f>4*A2-25.4</f>
+        <v>-5.3999999999999986</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>19</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">4*A3-25.4</f>
+        <v>14.600000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>54.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>94</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>94.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>134</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>134.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>173</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>174.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>216</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>214.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" s="1">
         <v>256</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>254.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>297</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>294.60000000000002</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>90</v>
       </c>
       <c r="B11" s="1">
         <v>343</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>334.6</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="1">
         <v>390</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>374.6</v>
       </c>
     </row>
   </sheetData>
@@ -8582,8 +10668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8600,7 +10686,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -8611,8 +10697,8 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <f>SQRT(B2)</f>
-        <v>4.358898943540674</v>
+        <f>0.0032*A2^3.1</f>
+        <v>20.870921979927346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -8623,8 +10709,8 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C16" si="0">SQRT(B3)</f>
-        <v>5</v>
+        <f t="shared" ref="C3:C16" si="0">0.0032*A3^3.1</f>
+        <v>29.46362248303701</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -8636,7 +10722,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>5.6568542494923806</v>
+        <v>34.54164090044322</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -8648,7 +10734,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>7.1414284285428504</v>
+        <v>46.415206704205637</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -8660,7 +10746,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>7.5498344352707498</v>
+        <v>53.272891535453795</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -8672,7 +10758,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>8.426149773176359</v>
+        <v>68.986483073060654</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -8684,7 +10770,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>10.63014581273465</v>
+        <v>98.025682666933292</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -8696,7 +10782,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>11.874342087037917</v>
+        <v>134.39132296431976</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -8708,7 +10794,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>11.090536506409418</v>
+        <v>148.29104003789314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -8720,7 +10806,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>13.674794331177344</v>
+        <v>163.13351425305916</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -8732,7 +10818,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>13.856406460551018</v>
+        <v>213.64253903374967</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -8744,7 +10830,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>14.317821063276353</v>
+        <v>232.58158344625292</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -8756,7 +10842,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>15.874507866387544</v>
+        <v>252.62662950005435</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -8768,7 +10854,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>16.093476939431081</v>
+        <v>273.8106020071458</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -8780,7 +10866,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>17.146428199482248</v>
+        <v>319.7274575077202</v>
       </c>
     </row>
   </sheetData>
@@ -8794,8 +10880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B10 D1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8815,7 +10901,9 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -8827,6 +10915,10 @@
       <c r="C2" s="1">
         <v>57.9</v>
       </c>
+      <c r="D2">
+        <f>3*B2^(2/3)</f>
+        <v>59.353049318984404</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -8838,6 +10930,10 @@
       <c r="C3" s="1">
         <v>108.2</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">3*B3^(2/3)</f>
+        <v>110.97954334487116</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -8849,6 +10945,10 @@
       <c r="C4" s="1">
         <v>149.6</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>153.2203668041796</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -8860,6 +10960,10 @@
       <c r="C5" s="1">
         <v>227.9</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>233.57467115870674</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -8871,6 +10975,10 @@
       <c r="C6" s="1">
         <v>778.1</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>796.85562975752998</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -8882,6 +10990,10 @@
       <c r="C7" s="1">
         <v>1428.2</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1461.5298349424061</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -8893,6 +11005,10 @@
       <c r="C8" s="1">
         <v>2837.9</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2938.7954248969354</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -8904,6 +11020,10 @@
       <c r="C9" s="1">
         <v>4488.8999999999996</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4605.5164992718474</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -8914,6 +11034,10 @@
       </c>
       <c r="C10" s="1">
         <v>5876.7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6054.760911587291</v>
       </c>
     </row>
   </sheetData>

--- a/ModelFitting/data_fitting.xlsx
+++ b/ModelFitting/data_fitting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F923C-5DED-400C-BC44-E8FF93C6D850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1896EC1D-97A9-4089-8481-2355E71D2087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raindrops" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>v_term</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Estimate</t>
+  </si>
+  <si>
+    <t>Residuals</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1533,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stress (lb/inch^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43729746281714788"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1592,6 +1658,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elongation (10^(-5)inch/inch)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2149,11 +2270,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Wire Stress'!$C$1</c:f>
+              <c:f>'Wire Stress'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimation</c:v>
+                  <c:v>Residuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2180,70 +2301,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.23618941382327205"/>
-                  <c:y val="5.513888888888889E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Wire Stress'!$A$2:$A$12</c:f>
@@ -2288,42 +2345,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Wire Stress'!$C$2:$C$12</c:f>
+              <c:f>'Wire Stress'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-5.3999999999999986</c:v>
+                  <c:v>5.0499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.600000000000001</c:v>
+                  <c:v>3.6999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.6</c:v>
+                  <c:v>0.99999999999999289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.6</c:v>
+                  <c:v>-2.7000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.6</c:v>
+                  <c:v>-3.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.6</c:v>
+                  <c:v>-5.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.6</c:v>
+                  <c:v>-2.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>254.6</c:v>
+                  <c:v>-3.5000000000000568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294.60000000000002</c:v>
+                  <c:v>-3.2000000000000455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>334.6</c:v>
+                  <c:v>2.0999999999999659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>374.6</c:v>
+                  <c:v>8.3999999999999773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2388,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCCA-4F53-9F0B-EF9BC5C68D97}"/>
+              <c16:uniqueId val="{00000000-D7E4-41C9-9C28-18C08C77FAC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2343,11 +2400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492869880"/>
-        <c:axId val="492868920"/>
+        <c:axId val="403243448"/>
+        <c:axId val="403243768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492869880"/>
+        <c:axId val="403243448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,6 +2424,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stress (lb/in^s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2404,12 +2516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492868920"/>
+        <c:crossAx val="403243768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492868920"/>
+        <c:axId val="403243768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,6 +2541,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2466,7 +2633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492869880"/>
+        <c:crossAx val="403243448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2799,6 +2966,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Diameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2861,6 +3083,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3009,11 +3286,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pines!$C$1</c:f>
+              <c:f>Pines!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimate</c:v>
+                  <c:v>Residuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3040,182 +3317,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Pines!$B$2:$B$16</c:f>
+              <c:f>Pines!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>205</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>259</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>294</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pines!$C$2:$C$16</c:f>
+              <c:f>Pines!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.870921979927346</c:v>
+                  <c:v>-1.8709219799273455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.46362248303701</c:v>
+                  <c:v>-4.4636224830370104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.54164090044322</c:v>
+                  <c:v>-2.5416409004432197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.415206704205637</c:v>
+                  <c:v>4.5847932957943627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.272891535453795</c:v>
+                  <c:v>3.7271084645462054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.986483073060654</c:v>
+                  <c:v>2.0135169269393458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.025682666933292</c:v>
+                  <c:v>14.974317333066708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.39132296431976</c:v>
+                  <c:v>6.6086770356802447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.29104003789314</c:v>
+                  <c:v>-25.29104003789314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163.13351425305916</c:v>
+                  <c:v>23.866485746940839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.64253903374967</c:v>
+                  <c:v>-21.642539033749671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>232.58158344625292</c:v>
+                  <c:v>-27.581583446252921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252.62662950005435</c:v>
+                  <c:v>-0.62662950005434936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.8106020071458</c:v>
+                  <c:v>-14.810602007145803</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>319.7274575077202</c:v>
+                  <c:v>-25.727457507720203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +3428,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95EE-4326-9691-BD80FF314325}"/>
+              <c16:uniqueId val="{00000000-702B-4501-9417-783840CF3204}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3235,11 +3440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419874736"/>
-        <c:axId val="487983664"/>
+        <c:axId val="241104560"/>
+        <c:axId val="245828792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419874736"/>
+        <c:axId val="241104560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,12 +3501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487983664"/>
+        <c:crossAx val="245828792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487983664"/>
+        <c:axId val="245828792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419874736"/>
+        <c:crossAx val="241104560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3871,11 +4076,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planets!$D$1</c:f>
+              <c:f>Planets!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimate</c:v>
+                  <c:v>Residuals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3902,50 +4107,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Planets!$B$2:$B$10</c:f>
@@ -3984,36 +4145,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planets!$D$2:$D$10</c:f>
+              <c:f>Planets!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>59.353049318984404</c:v>
+                  <c:v>1.4530493189844051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.97954334487116</c:v>
+                  <c:v>2.7795433448711577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.2203668041796</c:v>
+                  <c:v>3.6203668041796107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.57467115870674</c:v>
+                  <c:v>5.6746711587067296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>796.85562975752998</c:v>
+                  <c:v>18.75562975752996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1461.5298349424061</c:v>
+                  <c:v>33.329834942406023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2938.7954248969354</c:v>
+                  <c:v>100.89542489693531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4605.5164992718474</c:v>
+                  <c:v>116.61649927184772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6054.760911587291</c:v>
+                  <c:v>178.06091158729123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4021,7 +4182,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD88-4EB1-BDD4-3E1A6E4DDAD7}"/>
+              <c16:uniqueId val="{00000000-4906-4726-9534-331953E88400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4033,11 +4194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468213816"/>
-        <c:axId val="468215416"/>
+        <c:axId val="245815280"/>
+        <c:axId val="241099120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468213816"/>
+        <c:axId val="245815280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,12 +4255,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468215416"/>
+        <c:crossAx val="241099120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468215416"/>
+        <c:axId val="241099120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468213816"/>
+        <c:crossAx val="245815280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9297,16 +9458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>311942</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450055</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350042</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9370,22 +9531,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>335755</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>150018</xdr:rowOff>
+      <xdr:colOff>626267</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373855</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAE4396-DD33-4A82-A258-50A86268FF33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6259C2E3-18E4-45F6-88EA-B75FCCFAB0BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9447,22 +9608,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>335756</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>373856</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:colOff>435768</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF69019-F3B3-4B3A-91DE-BD7B99B5B4C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5A2852-630B-4B6E-9E7F-DB91CC23B627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9524,22 +9685,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>597694</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
+      <xdr:colOff>883443</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411956</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50005</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6971CE1C-52C9-473F-BE9A-01A843B4A8F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0D4F67-C041-4B30-B870-9A7DB317F018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9825,7 +9986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -10502,10 +10663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10514,7 +10675,7 @@
     <col min="2" max="2" width="26.86328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -10524,8 +10685,11 @@
       <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -10533,11 +10697,15 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>4*A2-25.4</f>
-        <v>-5.3999999999999986</v>
+        <f>4.07*A2-25.4</f>
+        <v>-5.0499999999999972</v>
+      </c>
+      <c r="D2">
+        <f>B2 - C2</f>
+        <v>5.0499999999999972</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -10545,11 +10713,15 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">4*A3-25.4</f>
-        <v>14.600000000000001</v>
+        <f t="shared" ref="C3:C12" si="0">4.07*A3-25.4</f>
+        <v>15.300000000000004</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="1">B3 - C3</f>
+        <v>3.6999999999999957</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -10558,10 +10730,14 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>54.6</v>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999289</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -10570,10 +10746,14 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>94.6</v>
+        <v>96.700000000000017</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-2.7000000000000171</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -10582,10 +10762,14 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>134.6</v>
+        <v>137.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-3.4000000000000057</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -10594,10 +10778,14 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>174.6</v>
+        <v>178.1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-5.0999999999999943</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -10606,10 +10794,14 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>214.6</v>
+        <v>218.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-2.8000000000000114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -10618,10 +10810,14 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>254.6</v>
+        <v>259.50000000000006</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-3.5000000000000568</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -10630,10 +10826,14 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>294.60000000000002</v>
+        <v>300.20000000000005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-3.2000000000000455</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -10642,10 +10842,14 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>334.6</v>
+        <v>340.90000000000003</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999659</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -10654,7 +10858,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>374.6</v>
+        <v>381.6</v>
+      </c>
+      <c r="D12">
+        <f>B12 - C12</f>
+        <v>8.3999999999999773</v>
       </c>
     </row>
   </sheetData>
@@ -10666,10 +10874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10678,7 +10886,7 @@
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -10688,8 +10896,11 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>17</v>
       </c>
@@ -10700,8 +10911,12 @@
         <f>0.0032*A2^3.1</f>
         <v>20.870921979927346</v>
       </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>-1.8709219799273455</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -10712,8 +10927,12 @@
         <f t="shared" ref="C3:C16" si="0">0.0032*A3^3.1</f>
         <v>29.46362248303701</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="1">B3-C3</f>
+        <v>-4.4636224830370104</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -10724,8 +10943,12 @@
         <f t="shared" si="0"/>
         <v>34.54164090044322</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-2.5416409004432197</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -10736,8 +10959,12 @@
         <f t="shared" si="0"/>
         <v>46.415206704205637</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4.5847932957943627</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -10748,8 +10975,12 @@
         <f t="shared" si="0"/>
         <v>53.272891535453795</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.7271084645462054</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -10760,8 +10991,12 @@
         <f t="shared" si="0"/>
         <v>68.986483073060654</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2.0135169269393458</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>28</v>
       </c>
@@ -10772,8 +11007,12 @@
         <f t="shared" si="0"/>
         <v>98.025682666933292</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>14.974317333066708</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -10784,8 +11023,12 @@
         <f t="shared" si="0"/>
         <v>134.39132296431976</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>6.6086770356802447</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -10796,8 +11039,12 @@
         <f t="shared" si="0"/>
         <v>148.29104003789314</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-25.29104003789314</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -10808,8 +11055,12 @@
         <f t="shared" si="0"/>
         <v>163.13351425305916</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>23.866485746940839</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>36</v>
       </c>
@@ -10820,8 +11071,12 @@
         <f t="shared" si="0"/>
         <v>213.64253903374967</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-21.642539033749671</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>37</v>
       </c>
@@ -10832,8 +11087,12 @@
         <f t="shared" si="0"/>
         <v>232.58158344625292</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-27.581583446252921</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -10844,8 +11103,12 @@
         <f t="shared" si="0"/>
         <v>252.62662950005435</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-0.62662950005434936</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>39</v>
       </c>
@@ -10856,8 +11119,12 @@
         <f t="shared" si="0"/>
         <v>273.8106020071458</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-14.810602007145803</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -10867,6 +11134,10 @@
       <c r="C16">
         <f t="shared" si="0"/>
         <v>319.7274575077202</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-25.727457507720203</v>
       </c>
     </row>
   </sheetData>
@@ -10878,10 +11149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B10 D1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="B1:B10 E1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10891,7 +11162,7 @@
     <col min="3" max="3" width="39.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10904,8 +11175,11 @@
       <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -10919,8 +11193,12 @@
         <f>3*B2^(2/3)</f>
         <v>59.353049318984404</v>
       </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>1.4530493189844051</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -10934,8 +11212,12 @@
         <f t="shared" ref="D3:D10" si="0">3*B3^(2/3)</f>
         <v>110.97954334487116</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">D3-C3</f>
+        <v>2.7795433448711577</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10949,8 +11231,12 @@
         <f t="shared" si="0"/>
         <v>153.2203668041796</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3.6203668041796107</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -10964,8 +11250,12 @@
         <f t="shared" si="0"/>
         <v>233.57467115870674</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5.6746711587067296</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -10979,8 +11269,12 @@
         <f t="shared" si="0"/>
         <v>796.85562975752998</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>18.75562975752996</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -10994,8 +11288,12 @@
         <f t="shared" si="0"/>
         <v>1461.5298349424061</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>33.329834942406023</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -11009,8 +11307,12 @@
         <f t="shared" si="0"/>
         <v>2938.7954248969354</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>100.89542489693531</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -11024,8 +11326,12 @@
         <f t="shared" si="0"/>
         <v>4605.5164992718474</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>116.61649927184772</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -11038,6 +11344,10 @@
       <c r="D10">
         <f t="shared" si="0"/>
         <v>6054.760911587291</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>178.06091158729123</v>
       </c>
     </row>
   </sheetData>

--- a/ModelFitting/data_fitting.xlsx
+++ b/ModelFitting/data_fitting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1896EC1D-97A9-4089-8481-2355E71D2087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DDB1E-555A-4B8D-904E-8BE484674D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raindrops" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>v_term</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Residuals</t>
+  </si>
+  <si>
+    <t>Relative Error</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -693,6 +699,1112 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planets!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min distance from the sun (millions of km)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26614413823272093"/>
+                  <c:y val="1.1815033537474482E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planets!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planets!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>778.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1428.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2837.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4488.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5876.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFCB-46D2-BE9D-439BBF67F4A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="447737008"/>
+        <c:axId val="447733808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="447737008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447733808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="447733808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447737008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planets!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planets!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planets!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4530493189844051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7795433448711577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6203668041796107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6746711587067296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.75562975752996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.329834942406023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.89542489693531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.61649927184772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.06091158729123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4906-4726-9534-331953E88400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245815280"/>
+        <c:axId val="241099120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245815280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241099120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241099120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245815280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planets!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planets!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planets!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5095843160352422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5688940340768558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4200312862163171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.48998295687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4104395010319957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3336952067221697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5552847139411292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5978858801008649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.029947276316491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCE7-4F50-BACF-C984DB60D405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655882736"/>
+        <c:axId val="655872896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655882736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655872896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="655872896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655882736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2704,6 +3816,392 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relative Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wire Stress'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Relative Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Wire Stress'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Wire Stress'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.473684210526294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7543859649122682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8723404255319327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5373134328358251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9479768786127134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2962962962963016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3671875000000222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0774410774410927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61224489795917381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.153846153846148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F2C-4EB7-A56E-081A22C118C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655877160"/>
+        <c:axId val="655873224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655877160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655873224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="655873224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655877160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2826,49 +4324,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,49 +4378,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3231,7 +4729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3324,49 +4822,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,49 +4876,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-1.8709219799273455</c:v>
+                  <c:v>-25.29104003789314</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.4636224830370104</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-27.581583446252921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21.642539033749671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8709219799273455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.727457507720203</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-2.5416409004432197</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>-14.810602007145803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.62662950005434936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0135169269393458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6086770356802447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7271084645462054</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4.5847932957943627</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7271084645462054</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0135169269393458</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>23.866485746940839</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14.974317333066708</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6086770356802447</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-25.29104003789314</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.866485746940839</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-21.642539033749671</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-27.581583446252921</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.62662950005434936</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-14.810602007145803</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-25.727457507720203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,7 +5117,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3674,11 +5172,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planets!$C$1</c:f>
+              <c:f>Pines!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Min distance from the sun (millions of km)</c:v>
+                  <c:v>Relative Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3705,124 +5203,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.26614413823272093"/>
-                  <c:y val="1.1815033537474482E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Planets!$B$2:$B$10</c:f>
+              <c:f>Pines!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>365</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>687</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4329</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10753</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30660</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60150</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90670</c:v>
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planets!$C$2:$C$10</c:f>
+              <c:f>Pines!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>57.9</c:v>
+                  <c:v>-20.561821169018813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.2</c:v>
+                  <c:v>-17.854489932148041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.6</c:v>
+                  <c:v>-13.454430949391668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.9</c:v>
+                  <c:v>-11.272155746744621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>778.1</c:v>
+                  <c:v>-9.8469577890912934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1428.2</c:v>
+                  <c:v>-8.7508358869796599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2837.9</c:v>
+                  <c:v>-7.9426278138850614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4488.8999999999996</c:v>
+                  <c:v>-5.7183791533381481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5876.7</c:v>
+                  <c:v>-0.24866250002156723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8359393337173886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6870049898441453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5387867799056236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9897907760673768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.762826602642161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.25160825935107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,7 +5314,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFCB-46D2-BE9D-439BBF67F4A6}"/>
+              <c16:uniqueId val="{00000000-4DB4-4535-B998-2E9FCA754A85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3842,11 +5326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="447737008"/>
-        <c:axId val="447733808"/>
+        <c:axId val="655877816"/>
+        <c:axId val="655880112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447737008"/>
+        <c:axId val="655877816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,12 +5387,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447733808"/>
+        <c:crossAx val="655880112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447733808"/>
+        <c:axId val="655880112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,359 +5449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447737008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planets!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Residuals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planets!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4329</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10753</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30660</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90670</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planets!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4530493189844051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7795433448711577</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6203668041796107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6746711587067296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.75562975752996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.329834942406023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.89542489693531</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>116.61649927184772</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>178.06091158729123</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4906-4726-9534-331953E88400}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="245815280"/>
-        <c:axId val="241099120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="245815280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241099120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="241099120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245815280"/>
+        <c:crossAx val="655877816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4374,6 +5506,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5249,6 +6501,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9564,6 +12364,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>207433</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D68854-5BE6-469E-81FA-5E7BB1A634A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9607,16 +12443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>397668</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30956</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622034</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>435768</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42597</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9641,6 +12477,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364066</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1856F76A-0223-43E2-8C3A-4B57654B32EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9648,16 +12520,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>907256</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386557</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>73818</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>169069</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2812786</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20902</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9713,6 +12585,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300566</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF02738-7A87-4A36-B7AE-C360FA861486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9990,12 +12898,12 @@
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10012,7 +12920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B2" s="1">
         <v>14.14</v>
       </c>
@@ -10035,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B3" s="1">
         <v>33.5</v>
       </c>
@@ -10055,7 +12963,7 @@
         <v>5.7879184513951127</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B4" s="1">
         <v>65.5</v>
       </c>
@@ -10075,7 +12983,7 @@
         <v>8.0932070281193234</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B5" s="1">
         <v>113.1</v>
       </c>
@@ -10095,7 +13003,7 @@
         <v>10.634848376916334</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B6" s="1">
         <v>179.6</v>
       </c>
@@ -10115,7 +13023,7 @@
         <v>13.401492454200763</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B7" s="1">
         <v>268</v>
       </c>
@@ -10135,7 +13043,7 @@
         <v>16.370705543744901</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B8" s="1">
         <v>382</v>
       </c>
@@ -10155,7 +13063,7 @@
         <v>19.544820285692065</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B9" s="1">
         <v>524</v>
       </c>
@@ -10175,7 +13083,7 @@
         <v>22.891046284519195</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B10" s="1">
         <v>905</v>
       </c>
@@ -10195,7 +13103,7 @@
         <v>30.083217912982647</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B11" s="1">
         <v>1437</v>
       </c>
@@ -10215,7 +13123,7 @@
         <v>37.907782842049734</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B12" s="1">
         <v>2140</v>
       </c>
@@ -10235,7 +13143,7 @@
         <v>46.260134024881509</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B13" s="1">
         <v>3050</v>
       </c>
@@ -10255,7 +13163,7 @@
         <v>55.226805085936306</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B14" s="1">
         <v>4190</v>
       </c>
@@ -10275,7 +13183,7 @@
         <v>64.730209330729039</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B15" s="1">
         <v>5580</v>
       </c>
@@ -10295,7 +13203,7 @@
         <v>74.699397587932395</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B16" s="1">
         <v>7240</v>
       </c>
@@ -10315,7 +13223,7 @@
         <v>85.088189544730596</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" s="1">
         <v>9200</v>
       </c>
@@ -10335,7 +13243,7 @@
         <v>95.916630466254389</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" s="1">
         <v>11490</v>
       </c>
@@ -10355,7 +13263,7 @@
         <v>107.19141756689292</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19" s="1">
         <v>14140</v>
       </c>
@@ -10375,7 +13283,7 @@
         <v>118.91173196955799</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20" s="1">
         <v>17160</v>
       </c>
@@ -10395,7 +13303,7 @@
         <v>130.99618315050253</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21" s="1">
         <v>20600</v>
       </c>
@@ -10415,7 +13323,7 @@
         <v>143.52700094407325</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22" s="1">
         <v>24400</v>
       </c>
@@ -10435,7 +13343,7 @@
         <v>156.20499351813308</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23" s="1">
         <v>28700</v>
       </c>
@@ -10455,7 +13363,7 @@
         <v>169.41074346097417</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24" s="1">
         <v>33500</v>
       </c>
@@ -10475,7 +13383,7 @@
         <v>183.03005217723125</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" s="1">
         <v>38800</v>
       </c>
@@ -10495,7 +13403,7 @@
         <v>196.97715603592209</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" s="1">
         <v>44600</v>
       </c>
@@ -10515,7 +13423,7 @@
         <v>211.18712081942877</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27" s="1">
         <v>51000</v>
       </c>
@@ -10535,7 +13443,7 @@
         <v>225.83179581272429</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28" s="1">
         <v>57900</v>
       </c>
@@ -10555,7 +13463,7 @@
         <v>240.62418831031928</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29" s="1">
         <v>65500</v>
       </c>
@@ -10575,7 +13483,7 @@
         <v>255.92967784139455</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30" s="1">
         <v>73600</v>
       </c>
@@ -10595,7 +13503,7 @@
         <v>271.29319932501073</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31" s="1">
         <v>82400</v>
       </c>
@@ -10615,7 +13523,7 @@
         <v>287.0540018881465</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B32" s="1">
         <v>92000</v>
       </c>
@@ -10635,7 +13543,7 @@
         <v>303.31501776206204</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B33" s="1">
         <v>102200</v>
       </c>
@@ -10663,19 +13571,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.87890625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -10688,8 +13596,11 @@
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -10704,8 +13615,11 @@
         <f>B2 - C2</f>
         <v>5.0499999999999972</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -10713,15 +13627,19 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">4.07*A3-25.4</f>
+        <f t="shared" ref="C3:C13" si="0">4.07*A3-25.4</f>
         <v>15.300000000000004</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="1">B3 - C3</f>
         <v>3.6999999999999957</v>
       </c>
+      <c r="E3">
+        <f>(D3/B3)*100</f>
+        <v>19.473684210526294</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -10736,8 +13654,12 @@
         <f t="shared" si="1"/>
         <v>0.99999999999999289</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="2">(D4/B4)*100</f>
+        <v>1.7543859649122682</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -10752,8 +13674,12 @@
         <f t="shared" si="1"/>
         <v>-2.7000000000000171</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-2.8723404255319327</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -10768,8 +13694,12 @@
         <f t="shared" si="1"/>
         <v>-3.4000000000000057</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-2.5373134328358251</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -10784,8 +13714,12 @@
         <f t="shared" si="1"/>
         <v>-5.0999999999999943</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-2.9479768786127134</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -10800,8 +13734,12 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000114</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.2962962962963016</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -10816,8 +13754,12 @@
         <f t="shared" si="1"/>
         <v>-3.5000000000000568</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-1.3671875000000222</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -10832,8 +13774,12 @@
         <f t="shared" si="1"/>
         <v>-3.2000000000000455</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-1.0774410774410927</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -10848,8 +13794,12 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999659</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.61224489795917381</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -10863,6 +13813,10 @@
       <c r="D12">
         <f>B12 - C12</f>
         <v>8.3999999999999773</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2.153846153846148</v>
       </c>
     </row>
   </sheetData>
@@ -10874,19 +13828,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -10899,24 +13853,31 @@
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <f>0.0032*A2^3.1</f>
-        <v>20.870921979927346</v>
+        <v>148.29104003789314</v>
       </c>
       <c r="D2">
         <f>B2-C2</f>
-        <v>-1.8709219799273455</v>
+        <v>-25.29104003789314</v>
+      </c>
+      <c r="E2">
+        <f>(D2/B2)*100</f>
+        <v>-20.561821169018813</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -10924,223 +13885,282 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C16" si="0">0.0032*A3^3.1</f>
+        <f>0.0032*A3^3.1</f>
         <v>29.46362248303701</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="1">B3-C3</f>
+        <f>B3-C3</f>
         <v>-4.4636224830370104</v>
       </c>
+      <c r="E3">
+        <f>(D3/B3)*100</f>
+        <v>-17.854489932148041</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <f>0.0032*A4^3.1</f>
+        <v>232.58158344625292</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>-27.581583446252921</v>
+      </c>
+      <c r="E4">
+        <f>(D4/B4)*100</f>
+        <v>-13.454430949391668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <f>0.0032*A5^3.1</f>
+        <v>213.64253903374967</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>-21.642539033749671</v>
+      </c>
+      <c r="E5">
+        <f>(D5/B5)*100</f>
+        <v>-11.272155746744621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>0.0032*A6^3.1</f>
+        <v>20.870921979927346</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>-1.8709219799273455</v>
+      </c>
+      <c r="E6">
+        <f>(D6/B6)*100</f>
+        <v>-9.8469577890912934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
+        <v>294</v>
+      </c>
+      <c r="C7">
+        <f>0.0032*A7^3.1</f>
+        <v>319.7274575077202</v>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>-25.727457507720203</v>
+      </c>
+      <c r="E7">
+        <f>(D7/B7)*100</f>
+        <v>-8.7508358869796599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B8" s="1">
         <v>32</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C8">
+        <f>0.0032*A8^3.1</f>
         <v>34.54164090044322</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
+      <c r="D8">
+        <f>B8-C8</f>
         <v>-2.5416409004432197</v>
       </c>
+      <c r="E8">
+        <f>(D8/B8)*100</f>
+        <v>-7.9426278138850614</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>259</v>
+      </c>
+      <c r="C9">
+        <f>0.0032*A9^3.1</f>
+        <v>273.8106020071458</v>
+      </c>
+      <c r="D9">
+        <f>B9-C9</f>
+        <v>-14.810602007145803</v>
+      </c>
+      <c r="E9">
+        <f>(D9/B9)*100</f>
+        <v>-5.7183791533381481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>252</v>
+      </c>
+      <c r="C10">
+        <f>0.0032*A10^3.1</f>
+        <v>252.62662950005435</v>
+      </c>
+      <c r="D10">
+        <f>B10-C10</f>
+        <v>-0.62662950005434936</v>
+      </c>
+      <c r="E10">
+        <f>(D10/B10)*100</f>
+        <v>-0.24866250002156723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <f>0.0032*A11^3.1</f>
+        <v>68.986483073060654</v>
+      </c>
+      <c r="D11">
+        <f>B11-C11</f>
+        <v>2.0135169269393458</v>
+      </c>
+      <c r="E11">
+        <f>(D11/B11)*100</f>
+        <v>2.8359393337173886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <f>0.0032*A12^3.1</f>
+        <v>134.39132296431976</v>
+      </c>
+      <c r="D12">
+        <f>B12-C12</f>
+        <v>6.6086770356802447</v>
+      </c>
+      <c r="E12">
+        <f>(D12/B12)*100</f>
+        <v>4.6870049898441453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <f>0.0032*A13^3.1</f>
+        <v>53.272891535453795</v>
+      </c>
+      <c r="D13">
+        <f>B13-C13</f>
+        <v>3.7271084645462054</v>
+      </c>
+      <c r="E13">
+        <f>(D13/B13)*100</f>
+        <v>6.5387867799056236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B14" s="1">
         <v>51</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="C14">
+        <f>0.0032*A14^3.1</f>
         <v>46.415206704205637</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="D14">
+        <f>B14-C14</f>
         <v>4.5847932957943627</v>
       </c>
+      <c r="E14">
+        <f>(D14/B14)*100</f>
+        <v>8.9897907760673768</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>53.272891535453795</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>3.7271084645462054</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>187</v>
+      </c>
+      <c r="C15">
+        <f>0.0032*A15^3.1</f>
+        <v>163.13351425305916</v>
+      </c>
+      <c r="D15">
+        <f>B15-C15</f>
+        <v>23.866485746940839</v>
+      </c>
+      <c r="E15">
+        <f>(D15/B15)*100</f>
+        <v>12.762826602642161</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>71</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>68.986483073060654</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>2.0135169269393458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
         <v>28</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B16" s="1">
         <v>113</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="C16">
+        <f>0.0032*A16^3.1</f>
         <v>98.025682666933292</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
+      <c r="D16">
+        <f>B16-C16</f>
         <v>14.974317333066708</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1">
-        <v>141</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>134.39132296431976</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>6.6086770356802447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1">
-        <v>123</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>148.29104003789314</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>-25.29104003789314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <v>187</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>163.13351425305916</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>23.866485746940839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1">
-        <v>192</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>213.64253903374967</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>-21.642539033749671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1">
-        <v>205</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>232.58158344625292</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>-27.581583446252921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1">
-        <v>252</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>252.62662950005435</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>-0.62662950005434936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1">
-        <v>259</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>273.8106020071458</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>-14.810602007145803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1">
-        <v>294</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>319.7274575077202</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>-25.727457507720203</v>
+      <c r="E16">
+        <f>(D16/B16)*100</f>
+        <v>13.25160825935107</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11149,20 +14169,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="B1:B10 E1:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.87890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.41015625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -11178,8 +14198,11 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11197,8 +14220,12 @@
         <f>D2-C2</f>
         <v>1.4530493189844051</v>
       </c>
+      <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>2.5095843160352422</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11216,8 +14243,12 @@
         <f t="shared" ref="E3:E10" si="1">D3-C3</f>
         <v>2.7795433448711577</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="2">(E3/C3)*100</f>
+        <v>2.5688940340768558</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -11235,8 +14266,12 @@
         <f t="shared" si="1"/>
         <v>3.6203668041796107</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2.4200312862163171</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -11254,8 +14289,12 @@
         <f t="shared" si="1"/>
         <v>5.6746711587067296</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.48998295687</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -11273,8 +14312,12 @@
         <f t="shared" si="1"/>
         <v>18.75562975752996</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.4104395010319957</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -11292,8 +14335,12 @@
         <f t="shared" si="1"/>
         <v>33.329834942406023</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2.3336952067221697</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -11311,8 +14358,12 @@
         <f t="shared" si="1"/>
         <v>100.89542489693531</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>3.5552847139411292</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -11330,8 +14381,12 @@
         <f t="shared" si="1"/>
         <v>116.61649927184772</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.5978858801008649</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -11349,9 +14404,14 @@
         <f t="shared" si="1"/>
         <v>178.06091158729123</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3.029947276316491</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>